--- a/scripts/output/202003/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202003/全家/全家整体资产配置.xlsx
@@ -5603,16 +5603,16 @@
         <v>2147</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>1.2149</v>
+        <v>1.2153</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>114494.77</v>
+        <v>249386.18</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>139179.84</v>
+        <v>303153.84</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>80.15000000000001</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
@@ -5650,16 +5650,16 @@
         <v>7749</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1.0891</v>
+        <v>1.0896</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>63804.41</v>
+        <v>139411.13</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>69553.19</v>
+        <v>151972.07</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>63.8</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
@@ -5697,16 +5697,16 @@
         <v>6060</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1.0966</v>
+        <v>1.0968</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>63402.48</v>
+        <v>138443.87</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>69546.17999999999</v>
+        <v>151859.08</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>19.02</v>
+        <v>13.84</v>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
@@ -5737,23 +5737,23 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>工银双利债券B</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>485011</v>
+        <v>1338</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>1.5745</v>
+        <v>1.3555</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>22077.79</v>
+        <v>55957.04</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>34816.67</v>
+        <v>75905.72</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>55.19</v>
+        <v>55.96</v>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
@@ -5784,23 +5784,23 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>1338</v>
+        <v>485011</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>1.3542</v>
+        <v>1.5745</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>25673.23</v>
+        <v>48212.34</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>34825.74</v>
+        <v>76030.86</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>59.05</v>
+        <v>120.53</v>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>

--- a/scripts/output/202003/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202003/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31.5" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="11.25" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="31.5"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="11.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1.652</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>3126.75</v>
+        <v>3182.32</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>5193.53</v>
+        <v>5403.58</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>28.14</v>
+        <v>146.39</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>1.432</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>3503.65</v>
+        <v>3572.12</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>5006.72</v>
+        <v>5233.16</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-10.51</v>
+        <v>117.88</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>4586.65</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4619.22</v>
+        <v>4727.92</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>306.39</v>
+        <v>415.09</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3337.32</v>
+        <v>3411.46</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290.43</v>
+        <v>364.56</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2746.24</v>
+        <v>2828.99</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>293.94</v>
+        <v>376.7</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>1178.34</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2741.17</v>
+        <v>2828.13</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224.36</v>
+        <v>311.32</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -812,13 +812,13 @@
         <v>1.2125</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>997.3200000000001</v>
+        <v>1077.86</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1158.79</v>
+        <v>1288.26</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-50.46</v>
+        <v>-18.65</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1067.42</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1115.35</v>
+        <v>1153.56</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91.8</v>
+        <v>130.01</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>718.11</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>806.72</v>
+        <v>822.09</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-40.79</v>
+        <v>-25.42</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327.49</v>
+        <v>337.41</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.23</v>
+        <v>24.15</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>64.5</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.37</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.35</v>
+        <v>-3.12</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1238,10 +1238,10 @@
         <v>77395.32000000001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94081.75</v>
+        <v>94221.06</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>286.36</v>
+        <v>425.67</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>43156.3</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47044.68</v>
+        <v>47217.31</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1221.32</v>
+        <v>1393.95</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>42863.77</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47017.27</v>
+        <v>47253.02</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>540.08</v>
+        <v>775.83</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>14936.36</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23554.64</v>
+        <v>23689.07</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>349.51</v>
+        <v>483.94</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>17358.09</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23546.25</v>
+        <v>23610.47</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>218.71</v>
+        <v>282.94</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>16731.88</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>10681.63</v>
+        <v>11034.67</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>-1318.47</v>
+        <v>-965.4299999999999</v>
       </c>
       <c r="G23" s="16" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>35500</v>
       </c>
       <c r="E24" s="20" t="n">
-        <v>11395.5</v>
+        <v>11573</v>
       </c>
       <c r="F24" s="20" t="n">
-        <v>-1384.5</v>
+        <v>-1207</v>
       </c>
       <c r="G24" s="21" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>300</v>
       </c>
       <c r="E25" s="20" t="n">
-        <v>303</v>
+        <v>310.2</v>
       </c>
       <c r="F25" s="20" t="n">
-        <v>153</v>
+        <v>160.2</v>
       </c>
       <c r="G25" s="21" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>1700</v>
       </c>
       <c r="E26" s="20" t="n">
-        <v>2473.5</v>
+        <v>2502.4</v>
       </c>
       <c r="F26" s="20" t="n">
-        <v>15.3</v>
+        <v>44.2</v>
       </c>
       <c r="G26" s="21" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>2700</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>7827.3</v>
+        <v>8110.8</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1517.4</v>
+        <v>1800.9</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>9100</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>37091.6</v>
+        <v>38220</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>5723.9</v>
+        <v>6852.3</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>37600</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>230187.2</v>
+        <v>235488.8</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>20341.6</v>
+        <v>25643.2</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>33800</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>28966.6</v>
+        <v>29980.6</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>-676</v>
+        <v>338</v>
       </c>
       <c r="G30" s="26" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>32700</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>33877.2</v>
+        <v>36231.6</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>8273.1</v>
+        <v>10627.5</v>
       </c>
       <c r="G31" s="26" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>34100</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>31269.7</v>
+        <v>31678.9</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>1636.8</v>
+        <v>2046</v>
       </c>
       <c r="G32" s="26" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4500</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>15939</v>
+        <v>16249.5</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>3087</v>
+        <v>3397.5</v>
       </c>
       <c r="G33" s="26" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4800</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>9859.200000000001</v>
+        <v>10180.8</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>6192</v>
+        <v>6513.6</v>
       </c>
       <c r="G34" s="26" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>14400</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>21772.8</v>
+        <v>22665.6</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>3470.4</v>
+        <v>4363.2</v>
       </c>
       <c r="G35" s="26" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>4157.52</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>8944.49</v>
+        <v>9179.799999999999</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>940.4299999999999</v>
+        <v>1175.75</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>9722</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>6206.52</v>
+        <v>6411.66</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>870.12</v>
+        <v>1075.25</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>4943.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>5165.94</v>
+        <v>5342.94</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>496.87</v>
+        <v>673.86</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>7379.54</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>4604.83</v>
+        <v>4715.53</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>602.91</v>
+        <v>713.6</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>4074.72</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>4160.29</v>
+        <v>4274.38</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>158.1</v>
+        <v>272.19</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>4550.55</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>4111.42</v>
+        <v>4176.04</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>776.3200000000001</v>
+        <v>840.9400000000001</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>400.63</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>868.73</v>
+        <v>896.29</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>201.72</v>
+        <v>229.28</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>736.3</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>862.35</v>
+        <v>888.64</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>195.34</v>
+        <v>221.63</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>809.28</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>759.51</v>
+        <v>787.35</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>92.5</v>
+        <v>120.34</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>611.53</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>664.55</v>
+        <v>691.33</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-2.45</v>
+        <v>24.34</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>473.85</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>529.95</v>
+        <v>563.74</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>63.07</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>5299.96</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1701.29</v>
+        <v>1727.79</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>-299.45</v>
+        <v>-272.95</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>576.8</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>787.33</v>
+        <v>807.52</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>120.32</v>
+        <v>140.51</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>459.67</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>676.63</v>
+        <v>685.92</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>9.65</v>
+        <v>18.94</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>611.75</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>660.6900000000001</v>
+        <v>677.8200000000001</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-6.3</v>
+        <v>10.83</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>1564.33</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>3365.5</v>
+        <v>3454.04</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>365.43</v>
+        <v>453.97</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>3083.26</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>3148.01</v>
+        <v>3234.34</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>148</v>
+        <v>234.33</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>1812.7</v>
       </c>
       <c r="E53" s="30" t="n">
-        <v>1131.12</v>
+        <v>1158.32</v>
       </c>
       <c r="F53" s="30" t="n">
-        <v>131.06</v>
+        <v>158.25</v>
       </c>
       <c r="G53" s="31" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>1227.03</v>
       </c>
       <c r="E54" s="30" t="n">
-        <v>1108.62</v>
+        <v>1126.05</v>
       </c>
       <c r="F54" s="30" t="n">
-        <v>108.59</v>
+        <v>126.02</v>
       </c>
       <c r="G54" s="31" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>1059.17</v>
       </c>
       <c r="E55" s="30" t="n">
-        <v>1054.93</v>
+        <v>1092</v>
       </c>
       <c r="F55" s="30" t="n">
-        <v>54.97</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="G55" s="31" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>916.83</v>
       </c>
       <c r="E56" s="30" t="n">
-        <v>996.3200000000001</v>
+        <v>1036.48</v>
       </c>
       <c r="F56" s="30" t="n">
-        <v>-3.67</v>
+        <v>36.49</v>
       </c>
       <c r="G56" s="31" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>1834.47</v>
       </c>
       <c r="E57" s="30" t="n">
-        <v>2406.64</v>
+        <v>2455.44</v>
       </c>
       <c r="F57" s="30" t="n">
-        <v>406.7</v>
+        <v>455.5</v>
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E58" s="30" t="n">
-        <v>1228.25</v>
+        <v>1259.75</v>
       </c>
       <c r="F58" s="30" t="n">
-        <v>228.28</v>
+        <v>259.78</v>
       </c>
       <c r="G58" s="31" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>689.02</v>
       </c>
       <c r="E59" s="30" t="n">
-        <v>1014.24</v>
+        <v>1028.16</v>
       </c>
       <c r="F59" s="30" t="n">
-        <v>14.26</v>
+        <v>28.18</v>
       </c>
       <c r="G59" s="31" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>7734.05</v>
       </c>
       <c r="E60" s="30" t="n">
-        <v>2482.63</v>
+        <v>2521.3</v>
       </c>
       <c r="F60" s="30" t="n">
-        <v>-517.41</v>
+        <v>-478.74</v>
       </c>
       <c r="G60" s="31" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>595.47</v>
       </c>
       <c r="E61" s="30" t="n">
-        <v>1086.14</v>
+        <v>1098.05</v>
       </c>
       <c r="F61" s="30" t="n">
-        <v>86.16</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="G61" s="31" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>953.96</v>
       </c>
       <c r="E62" s="30" t="n">
-        <v>1030.28</v>
+        <v>1056.99</v>
       </c>
       <c r="F62" s="30" t="n">
-        <v>30.24</v>
+        <v>56.95</v>
       </c>
       <c r="G62" s="31" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>73856.88</v>
+        <v>75882.34</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>7530.36</v>
+        <v>9555.82</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>63490</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>66340.7</v>
+        <v>68613.64</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>8139.42</v>
+        <v>10412.36</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>32370.29</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>41223.56</v>
+        <v>41919.53</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>9222.299999999999</v>
+        <v>9918.26</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>41014.88</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>38492.46</v>
+        <v>39903.38</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>7932.28</v>
+        <v>9343.190000000001</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>20086.63</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>36638.01</v>
+        <v>37039.75</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>4638</v>
+        <v>5039.74</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>27031.68</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>29375.33</v>
+        <v>30559.31</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>3773.62</v>
+        <v>4957.61</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>14624.61</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>24613.22</v>
+        <v>25388.32</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>5412.57</v>
+        <v>6187.67</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>16778.47</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>22902.61</v>
+        <v>23489.86</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>3701.33</v>
+        <v>4288.58</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>20716.63</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>22373.96</v>
+        <v>22954.03</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>-227.88</v>
+        <v>352.18</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E72" s="35" t="n">
-        <v>17763.57</v>
+        <v>18268.65</v>
       </c>
       <c r="F72" s="35" t="n">
-        <v>4963.13</v>
+        <v>5468.2</v>
       </c>
       <c r="G72" s="36" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>37267.45</v>
       </c>
       <c r="E73" s="35" t="n">
-        <v>11962.85</v>
+        <v>12149.19</v>
       </c>
       <c r="F73" s="35" t="n">
-        <v>-7237.34</v>
+        <v>-7051</v>
       </c>
       <c r="G73" s="36" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>6798.52</v>
       </c>
       <c r="E74" s="35" t="n">
-        <v>10007.42</v>
+        <v>10144.75</v>
       </c>
       <c r="F74" s="35" t="n">
-        <v>107.42</v>
+        <v>244.75</v>
       </c>
       <c r="G74" s="36" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>13403.92</v>
       </c>
       <c r="E75" s="35" t="n">
-        <v>8557.059999999999</v>
+        <v>8839.889999999999</v>
       </c>
       <c r="F75" s="35" t="n">
-        <v>2156.69</v>
+        <v>2439.51</v>
       </c>
       <c r="G75" s="36" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>5328.62</v>
       </c>
       <c r="E76" s="35" t="n">
-        <v>8103.23</v>
+        <v>8221.530000000001</v>
       </c>
       <c r="F76" s="35" t="n">
-        <v>1703.03</v>
+        <v>1821.32</v>
       </c>
       <c r="G76" s="36" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>5609.79</v>
       </c>
       <c r="E77" s="35" t="n">
-        <v>7646.14</v>
+        <v>7685.41</v>
       </c>
       <c r="F77" s="35" t="n">
-        <v>2500.84</v>
+        <v>2540.11</v>
       </c>
       <c r="G77" s="36" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         <v>3299.64</v>
       </c>
       <c r="E78" s="35" t="n">
-        <v>7098.85</v>
+        <v>7285.61</v>
       </c>
       <c r="F78" s="35" t="n">
-        <v>698.53</v>
+        <v>885.29</v>
       </c>
       <c r="G78" s="36" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>7852.99</v>
       </c>
       <c r="E79" s="35" t="n">
-        <v>7095.18</v>
+        <v>7206.69</v>
       </c>
       <c r="F79" s="35" t="n">
-        <v>694.99</v>
+        <v>806.5</v>
       </c>
       <c r="G79" s="36" t="inlineStr">
         <is>
@@ -4193,16 +4193,16 @@
         <v>90010</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.6562</v>
+        <v>1.6563</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1254.61</v>
+        <v>1276.84</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>2083.91</v>
+        <v>2168.07</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>6.02</v>
+        <v>53.24</v>
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
@@ -4240,16 +4240,16 @@
         <v>519671</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1.4309</v>
+        <v>1.4308</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>1376.6</v>
+        <v>1403.99</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1967.16</v>
+        <v>2056.85</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>-2.62</v>
+        <v>48.02</v>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>1797.43</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1810.19</v>
+        <v>1852.79</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>119.35</v>
+        <v>161.95</v>
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
         <v>915.97</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1352.52</v>
+        <v>1382.57</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>114.68</v>
+        <v>144.72</v>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>469.05</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1091.15</v>
+        <v>1125.77</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>86.54000000000001</v>
+        <v>121.16</v>
       </c>
       <c r="G84" s="6" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         <v>528.99</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1065.54</v>
+        <v>1097.65</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>113.79</v>
+        <v>145.9</v>
       </c>
       <c r="G85" s="6" t="inlineStr">
         <is>
@@ -4475,16 +4475,16 @@
         <v>1594</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.213</v>
+        <v>1.2095</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>395.22</v>
+        <v>427.43</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>459.21</v>
+        <v>510.86</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-20.2</v>
+        <v>-6.11</v>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>426.97</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>446.14</v>
+        <v>461.43</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>36.76</v>
+        <v>52.05</v>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
@@ -4569,16 +4569,16 @@
         <v>6327</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.18</v>
+        <v>1.1751</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>288.61</v>
+        <v>319.7</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>324.22</v>
+        <v>365.99</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>-16.34</v>
+        <v>-9.69</v>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>142.1</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>187.71</v>
+        <v>193.4</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>5.26</v>
+        <v>10.94</v>
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>25.8</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>34.95</v>
+        <v>35.84</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-2.13</v>
+        <v>-1.24</v>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
@@ -4710,16 +4710,16 @@
         <v>161128</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>0</v>
+        <v>1.7828</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>0</v>
+        <v>18.69</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>0</v>
+        <v>34.43</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G91" s="6" t="inlineStr">
         <is>
@@ -4891,258 +4891,258 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>519671</v>
+        <v>2147</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>1.4308</v>
+        <v>1.2174</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>1334.02</v>
+        <v>1588.12</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>1906.31</v>
+        <v>1933.38</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="G95" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H95" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I95" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J95" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K95" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>90010</v>
+        <v>6060</v>
       </c>
       <c r="C96" s="4" t="n">
-        <v>1.6528</v>
+        <v>1.1024</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>1139.64</v>
+        <v>876.9</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>1892.94</v>
+        <v>966.6900000000001</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>9.35</v>
+        <v>0</v>
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I96" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J96" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K96" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>3318</v>
+        <v>7749</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>0.9401</v>
+        <v>1.0941</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>1697.75</v>
+        <v>883.55</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>1709.8</v>
+        <v>966.6900000000001</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="G97" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J97" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K97" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>501021</v>
+        <v>485011</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.586</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>898.04</v>
+        <v>304.75</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1326.05</v>
+        <v>483.33</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>115.04</v>
+        <v>0</v>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J98" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K98" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B99" s="3" t="n">
-        <v>530015</v>
+        <v>1338</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>2.128</v>
+        <v>1.3602</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>439.46</v>
+        <v>355.34</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>1022.32</v>
+        <v>483.33</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>87.14</v>
+        <v>0</v>
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H99" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J99" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K99" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>70023</v>
+        <v>519671</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1.7966</v>
+        <v>1.4308</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>492.58</v>
+        <v>1361.41</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>992.2</v>
+        <v>1994.47</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>107.23</v>
+        <v>46.56</v>
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="I100" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J100" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K100" s="6" t="inlineStr">
@@ -5173,23 +5173,23 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>1594</v>
+        <v>90010</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1.2089</v>
+        <v>1.653</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>345.79</v>
+        <v>1161.87</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>401.77</v>
+        <v>1972.86</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>-16.25</v>
+        <v>52.28</v>
       </c>
       <c r="G101" s="6" t="inlineStr">
         <is>
@@ -5198,17 +5198,17 @@
       </c>
       <c r="H101" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I101" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J101" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K101" s="6" t="inlineStr">
@@ -5220,23 +5220,23 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>968</v>
+        <v>3318</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9401</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>390.82</v>
+        <v>1697.75</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>408.37</v>
+        <v>1750.04</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>33.22</v>
+        <v>153.99</v>
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
@@ -5245,17 +5245,17 @@
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J102" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K102" s="6" t="inlineStr">
@@ -5267,23 +5267,23 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>6327</v>
+        <v>501021</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1.18</v>
+        <v>1.3485</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>278.81</v>
+        <v>898.04</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>313.22</v>
+        <v>1355.5</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>-15.78</v>
+        <v>144.49</v>
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I103" s="6" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J103" s="6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K103" s="6" t="inlineStr">
@@ -5314,23 +5314,23 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>501050</v>
+        <v>530015</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>1.2891</v>
+        <v>2.128</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>62.09</v>
+        <v>439.46</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>82.02</v>
+        <v>1054.75</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>1.98</v>
+        <v>119.58</v>
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
@@ -5344,12 +5344,12 @@
       </c>
       <c r="I104" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J104" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K104" s="6" t="inlineStr">
@@ -5361,23 +5361,23 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>310398</v>
+        <v>70023</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.7966</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>25.8</v>
+        <v>492.58</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>34.95</v>
+        <v>1022.1</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>-2.13</v>
+        <v>137.13</v>
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
@@ -5391,12 +5391,12 @@
       </c>
       <c r="I105" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J105" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K105" s="6" t="inlineStr">
@@ -5408,42 +5408,42 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B106" s="3" t="n">
-        <v>161128</v>
+        <v>1594</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>0</v>
+        <v>1.2052</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0</v>
+        <v>451.79</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I106" s="6" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J106" s="6" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K106" s="6" t="inlineStr">
@@ -5455,23 +5455,23 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>1550</v>
+        <v>968</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9599</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>0</v>
+        <v>390.82</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>0</v>
+        <v>422.36</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>0</v>
+        <v>47.21</v>
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="I107" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J107" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K107" s="6" t="inlineStr">
@@ -5502,42 +5502,42 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>2086</v>
+        <v>6327</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.175</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>0</v>
+        <v>309.9</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>0</v>
+        <v>354.77</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>0</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I108" s="6" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J108" s="6" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K108" s="6" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>501029</v>
+        <v>501050</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>0.9829</v>
+        <v>1.2891</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>0</v>
+        <v>62.09</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="G109" s="6" t="inlineStr">
         <is>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="H109" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I109" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J109" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K109" s="6" t="inlineStr">
@@ -5596,493 +5596,493 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>2147</v>
+        <v>310398</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>1.2153</v>
+        <v>1.4372</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>249386.18</v>
+        <v>25.8</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>303153.84</v>
+        <v>35.84</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>74.81999999999999</v>
+        <v>-1.24</v>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I110" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J110" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K110" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>7749</v>
+        <v>161128</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1.0896</v>
+        <v>1.7828</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>139411.13</v>
+        <v>18.69</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>151972.07</v>
+        <v>34.43</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>69.70999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="I111" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="J111" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K111" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>6060</v>
+        <v>1550</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1.0968</v>
+        <v>0.6708</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>138443.87</v>
+        <v>0</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>151859.08</v>
+        <v>0</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>13.84</v>
+        <v>0</v>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H112" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I112" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J112" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K112" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>1338</v>
+        <v>2086</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>1.3555</v>
+        <v>1.2258</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>55957.04</v>
+        <v>0</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>75905.72</v>
+        <v>0</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>55.96</v>
+        <v>0</v>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J113" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K113" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
+          <t>华宝红利基金</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>501029</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="D114" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H114" s="6" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I114" s="6" t="inlineStr">
+        <is>
+          <t>标普红利</t>
+        </is>
+      </c>
+      <c r="J114" s="6" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K114" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>长安鑫益增强混合C</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="D115" s="5" t="n">
+        <v>274071.1</v>
+      </c>
+      <c r="E115" s="5" t="n">
+        <v>333654.16</v>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>575.55</v>
+      </c>
+      <c r="G115" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H115" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I115" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J115" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K115" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>1.0969</v>
+      </c>
+      <c r="D116" s="5" t="n">
+        <v>151857.97</v>
+      </c>
+      <c r="E116" s="5" t="n">
+        <v>167408.23</v>
+      </c>
+      <c r="F116" s="5" t="n">
+        <v>835.22</v>
+      </c>
+      <c r="G116" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H116" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I116" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J116" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K116" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>民生加银鹏程混合C</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>7749</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>1.0898</v>
+      </c>
+      <c r="D117" s="5" t="n">
+        <v>152799.73</v>
+      </c>
+      <c r="E117" s="5" t="n">
+        <v>167178.18</v>
+      </c>
+      <c r="F117" s="5" t="n">
+        <v>657.04</v>
+      </c>
+      <c r="G117" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H117" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I117" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J117" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K117" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
           <t>工银双利债券B</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B118" s="3" t="n">
         <v>485011</v>
       </c>
-      <c r="C114" s="4" t="n">
-        <v>1.5745</v>
-      </c>
-      <c r="D114" s="5" t="n">
-        <v>48212.34</v>
-      </c>
-      <c r="E114" s="5" t="n">
-        <v>76030.86</v>
-      </c>
-      <c r="F114" s="5" t="n">
-        <v>120.53</v>
-      </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="C118" s="4" t="n">
+        <v>1.5762</v>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v>52806.9</v>
+      </c>
+      <c r="E118" s="5" t="n">
+        <v>83751.74000000001</v>
+      </c>
+      <c r="F118" s="5" t="n">
+        <v>517.51</v>
+      </c>
+      <c r="G118" s="6" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H114" s="6" t="inlineStr">
+      <c r="H118" s="6" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I114" s="6" t="inlineStr">
+      <c r="I118" s="6" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J114" s="6" t="inlineStr">
+      <c r="J118" s="6" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="K114" s="6" t="inlineStr">
+      <c r="K118" s="6" t="inlineStr">
         <is>
           <t>钉钉宝365父</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B115" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C115" s="34" t="n">
-        <v>1.0451</v>
-      </c>
-      <c r="D115" s="35" t="n">
-        <v>9368.450000000001</v>
-      </c>
-      <c r="E115" s="35" t="n">
-        <v>11523.19</v>
-      </c>
-      <c r="F115" s="35" t="n">
-        <v>1732.23</v>
-      </c>
-      <c r="G115" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H115" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I115" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J115" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K115" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B116" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C116" s="34" t="n">
-        <v>0.9137</v>
-      </c>
-      <c r="D116" s="35" t="n">
-        <v>10068.96</v>
-      </c>
-      <c r="E116" s="35" t="n">
-        <v>10280.41</v>
-      </c>
-      <c r="F116" s="35" t="n">
-        <v>1080.4</v>
-      </c>
-      <c r="G116" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H116" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I116" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J116" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K116" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B117" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C117" s="34" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D117" s="35" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E117" s="35" t="n">
-        <v>6369.93</v>
-      </c>
-      <c r="F117" s="35" t="n">
-        <v>1169.86</v>
-      </c>
-      <c r="G117" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H117" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I117" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J117" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K117" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="32" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B118" s="33" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C118" s="34" t="n">
-        <v>0.7111</v>
-      </c>
-      <c r="D118" s="35" t="n">
-        <v>6750.28</v>
-      </c>
-      <c r="E118" s="35" t="n">
-        <v>6335.14</v>
-      </c>
-      <c r="F118" s="35" t="n">
-        <v>1535.01</v>
-      </c>
-      <c r="G118" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H118" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I118" s="36" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J118" s="36" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K118" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
     <row r="119">
-      <c r="A119" s="32" t="inlineStr">
-        <is>
-          <t>富国沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="B119" s="33" t="n">
-        <v>100038</v>
-      </c>
-      <c r="C119" s="34" t="n">
-        <v>1.3043</v>
-      </c>
-      <c r="D119" s="35" t="n">
-        <v>2760.12</v>
-      </c>
-      <c r="E119" s="35" t="n">
-        <v>4645.28</v>
-      </c>
-      <c r="F119" s="35" t="n">
-        <v>1045.26</v>
-      </c>
-      <c r="G119" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H119" s="36" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I119" s="36" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J119" s="36" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K119" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>安信稳健增值混合C</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>1.3555</v>
+      </c>
+      <c r="D119" s="5" t="n">
+        <v>61401.75</v>
+      </c>
+      <c r="E119" s="5" t="n">
+        <v>83518.66</v>
+      </c>
+      <c r="F119" s="5" t="n">
+        <v>288.59</v>
+      </c>
+      <c r="G119" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H119" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I119" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J119" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K119" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>4752</v>
+        <v>162711</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.7235</v>
+        <v>1.0451</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>4423.48</v>
+        <v>9368.450000000001</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>3996.61</v>
+        <v>11798.63</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>796.23</v>
+        <v>2007.66</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,23 +6113,23 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>161017</v>
+        <v>100032</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>1.325</v>
+        <v>0.9137</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>2046.97</v>
+        <v>10068.96</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>3815.55</v>
+        <v>10562.34</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>1103.32</v>
+        <v>1362.33</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6138,17 +6138,17 @@
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,23 +6160,23 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>1064</v>
+        <v>968</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>0.5379</v>
+        <v>0.853</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>5949.77</v>
+        <v>6096.21</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>3798.33</v>
+        <v>6588.17</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>597.95</v>
+        <v>1388.11</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6190,12 +6190,12 @@
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>3614.88</v>
+        <v>6567.35</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>423.72</v>
+        <v>1767.22</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>340001</v>
+        <v>100038</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.3043</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>1630.08</v>
+        <v>2760.12</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>2075.91</v>
+        <v>4791.57</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>475.82</v>
+        <v>1191.54</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,42 +6301,42 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B125" s="33" t="n">
-        <v>614</v>
+        <v>4752</v>
       </c>
       <c r="C125" s="34" t="n">
-        <v>1.0612</v>
+        <v>0.7235</v>
       </c>
       <c r="D125" s="35" t="n">
-        <v>1884.74</v>
+        <v>4423.48</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>2035.52</v>
+        <v>4059.43</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>35.43</v>
+        <v>859.04</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H125" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I125" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J125" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K125" s="36" t="inlineStr">
@@ -6348,23 +6348,23 @@
     <row r="126">
       <c r="A126" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B126" s="33" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C126" s="34" t="n">
-        <v>1.0273</v>
+        <v>1.325</v>
       </c>
       <c r="D126" s="35" t="n">
-        <v>913.64</v>
+        <v>2046.97</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>1981.14</v>
+        <v>3924.04</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>1042.55</v>
+        <v>1211.81</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6378,12 +6378,12 @@
       </c>
       <c r="I126" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J126" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K126" s="36" t="inlineStr">
@@ -6395,42 +6395,42 @@
     <row r="127">
       <c r="A127" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B127" s="33" t="n">
-        <v>164906</v>
+        <v>1064</v>
       </c>
       <c r="C127" s="34" t="n">
-        <v>1.137</v>
+        <v>0.5379</v>
       </c>
       <c r="D127" s="35" t="n">
-        <v>1407.29</v>
+        <v>5949.77</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>1920.95</v>
+        <v>3923.87</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>320.86</v>
+        <v>723.49</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H127" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I127" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J127" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K127" s="36" t="inlineStr">
@@ -6442,42 +6442,42 @@
     <row r="128">
       <c r="A128" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B128" s="33" t="n">
-        <v>162413</v>
+        <v>110027</v>
       </c>
       <c r="C128" s="34" t="n">
-        <v>0.776</v>
+        <v>1.6102</v>
       </c>
       <c r="D128" s="35" t="n">
-        <v>1546.42</v>
+        <v>1981.84</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>1393.32</v>
+        <v>3654.51</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>193.3</v>
+        <v>463.35</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H128" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I128" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J128" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K128" s="36" t="inlineStr">
@@ -6489,42 +6489,42 @@
     <row r="129">
       <c r="A129" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B129" s="33" t="n">
-        <v>1469</v>
+        <v>340001</v>
       </c>
       <c r="C129" s="34" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="D129" s="35" t="n">
-        <v>1267.08</v>
+        <v>1630.08</v>
       </c>
       <c r="E129" s="35" t="n">
-        <v>1376.94</v>
+        <v>2110.95</v>
       </c>
       <c r="F129" s="35" t="n">
-        <v>176.88</v>
+        <v>510.87</v>
       </c>
       <c r="G129" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H129" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I129" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J129" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K129" s="36" t="inlineStr">
@@ -6536,42 +6536,42 @@
     <row r="130">
       <c r="A130" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B130" s="33" t="n">
-        <v>1051</v>
+        <v>614</v>
       </c>
       <c r="C130" s="34" t="n">
-        <v>0.8966</v>
+        <v>1.0612</v>
       </c>
       <c r="D130" s="35" t="n">
-        <v>1338.46</v>
+        <v>1884.74</v>
       </c>
       <c r="E130" s="35" t="n">
-        <v>1333.11</v>
+        <v>2088.29</v>
       </c>
       <c r="F130" s="35" t="n">
-        <v>133.04</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="G130" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H130" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I130" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J130" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K130" s="36" t="inlineStr">
@@ -6583,42 +6583,42 @@
     <row r="131">
       <c r="A131" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B131" s="33" t="n">
-        <v>162411</v>
+        <v>110026</v>
       </c>
       <c r="C131" s="34" t="n">
-        <v>0.4405</v>
+        <v>1.0273</v>
       </c>
       <c r="D131" s="35" t="n">
-        <v>4541.16</v>
+        <v>913.64</v>
       </c>
       <c r="E131" s="35" t="n">
-        <v>1457.71</v>
+        <v>2044</v>
       </c>
       <c r="F131" s="35" t="n">
-        <v>-542.67</v>
+        <v>1105.41</v>
       </c>
       <c r="G131" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H131" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I131" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J131" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K131" s="36" t="inlineStr">
@@ -6630,42 +6630,42 @@
     <row r="132">
       <c r="A132" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B132" s="33" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C132" s="34" t="n">
-        <v>1.0903</v>
+        <v>1.137</v>
       </c>
       <c r="D132" s="35" t="n">
-        <v>733.79</v>
+        <v>1407.29</v>
       </c>
       <c r="E132" s="35" t="n">
-        <v>962.66</v>
+        <v>1970.21</v>
       </c>
       <c r="F132" s="35" t="n">
-        <v>162.61</v>
+        <v>370.12</v>
       </c>
       <c r="G132" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H132" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I132" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J132" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K132" s="36" t="inlineStr">
@@ -6677,23 +6677,23 @@
     <row r="133">
       <c r="A133" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B133" s="33" t="n">
-        <v>478</v>
+        <v>162413</v>
       </c>
       <c r="C133" s="34" t="n">
-        <v>1.9358</v>
+        <v>0.776</v>
       </c>
       <c r="D133" s="35" t="n">
-        <v>413.27</v>
+        <v>1546.42</v>
       </c>
       <c r="E133" s="35" t="n">
-        <v>889.11</v>
+        <v>1438.02</v>
       </c>
       <c r="F133" s="35" t="n">
-        <v>89.09999999999999</v>
+        <v>237.99</v>
       </c>
       <c r="G133" s="36" t="inlineStr">
         <is>
@@ -6707,12 +6707,12 @@
       </c>
       <c r="I133" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J133" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K133" s="36" t="inlineStr">
@@ -6724,23 +6724,23 @@
     <row r="134">
       <c r="A134" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B134" s="33" t="n">
-        <v>502010</v>
+        <v>1469</v>
       </c>
       <c r="C134" s="34" t="n">
-        <v>0.8063</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D134" s="35" t="n">
-        <v>496.13</v>
+        <v>1267.08</v>
       </c>
       <c r="E134" s="35" t="n">
-        <v>554.87</v>
+        <v>1432.43</v>
       </c>
       <c r="F134" s="35" t="n">
-        <v>154.84</v>
+        <v>232.38</v>
       </c>
       <c r="G134" s="36" t="inlineStr">
         <is>
@@ -6754,12 +6754,12 @@
       </c>
       <c r="I134" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J134" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K134" s="36" t="inlineStr">
@@ -6771,42 +6771,42 @@
     <row r="135">
       <c r="A135" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B135" s="33" t="n">
-        <v>519977</v>
+        <v>1051</v>
       </c>
       <c r="C135" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8966</v>
       </c>
       <c r="D135" s="35" t="n">
-        <v>333.04</v>
+        <v>1338.46</v>
       </c>
       <c r="E135" s="35" t="n">
-        <v>506.45</v>
+        <v>1379.95</v>
       </c>
       <c r="F135" s="35" t="n">
-        <v>106.44</v>
+        <v>179.89</v>
       </c>
       <c r="G135" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H135" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I135" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J135" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K135" s="36" t="inlineStr">
@@ -6818,42 +6818,42 @@
     <row r="136">
       <c r="A136" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B136" s="33" t="n">
-        <v>51</v>
+        <v>162411</v>
       </c>
       <c r="C136" s="34" t="n">
-        <v>1.2285</v>
+        <v>0.4405</v>
       </c>
       <c r="D136" s="35" t="n">
-        <v>325.61</v>
+        <v>4541.16</v>
       </c>
       <c r="E136" s="35" t="n">
-        <v>443.16</v>
+        <v>1480.42</v>
       </c>
       <c r="F136" s="35" t="n">
-        <v>43.14</v>
+        <v>-519.96</v>
       </c>
       <c r="G136" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H136" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I136" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J136" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K136" s="36" t="inlineStr">
@@ -6865,51 +6865,286 @@
     <row r="137">
       <c r="A137" s="32" t="inlineStr">
         <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B137" s="33" t="n">
+        <v>216</v>
+      </c>
+      <c r="C137" s="34" t="n">
+        <v>1.0903</v>
+      </c>
+      <c r="D137" s="35" t="n">
+        <v>733.79</v>
+      </c>
+      <c r="E137" s="35" t="n">
+        <v>982.1799999999999</v>
+      </c>
+      <c r="F137" s="35" t="n">
+        <v>182.13</v>
+      </c>
+      <c r="G137" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H137" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I137" s="36" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J137" s="36" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K137" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B138" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C138" s="34" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="D138" s="35" t="n">
+        <v>413.27</v>
+      </c>
+      <c r="E138" s="35" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="F138" s="35" t="n">
+        <v>112.49</v>
+      </c>
+      <c r="G138" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H138" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I138" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J138" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K138" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="32" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="B139" s="33" t="n">
+        <v>502010</v>
+      </c>
+      <c r="C139" s="34" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="D139" s="35" t="n">
+        <v>496.13</v>
+      </c>
+      <c r="E139" s="35" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F139" s="35" t="n">
+        <v>190.22</v>
+      </c>
+      <c r="G139" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H139" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I139" s="36" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J139" s="36" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K139" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="32" t="inlineStr">
+        <is>
+          <t>长信可转债债券A</t>
+        </is>
+      </c>
+      <c r="B140" s="33" t="n">
+        <v>519977</v>
+      </c>
+      <c r="C140" s="34" t="n">
+        <v>1.2011</v>
+      </c>
+      <c r="D140" s="35" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="E140" s="35" t="n">
+        <v>513.85</v>
+      </c>
+      <c r="F140" s="35" t="n">
+        <v>113.83</v>
+      </c>
+      <c r="G140" s="36" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H140" s="36" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I140" s="36" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J140" s="36" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K140" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="32" t="inlineStr">
+        <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B141" s="33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C141" s="34" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D141" s="35" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E141" s="35" t="n">
+        <v>457.16</v>
+      </c>
+      <c r="F141" s="35" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="G141" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H141" s="36" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I141" s="36" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J141" s="36" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K141" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="32" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B137" s="33" t="n">
+      <c r="B142" s="33" t="n">
         <v>71</v>
       </c>
-      <c r="C137" s="34" t="n">
+      <c r="C142" s="34" t="n">
         <v>1.452</v>
       </c>
-      <c r="D137" s="35" t="n">
+      <c r="D142" s="35" t="n">
         <v>275.49</v>
       </c>
-      <c r="E137" s="35" t="n">
-        <v>405.52</v>
-      </c>
-      <c r="F137" s="35" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="G137" s="36" t="inlineStr">
+      <c r="E142" s="35" t="n">
+        <v>411.09</v>
+      </c>
+      <c r="F142" s="35" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="G142" s="36" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="H137" s="36" t="inlineStr">
+      <c r="H142" s="36" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="I137" s="36" t="inlineStr">
+      <c r="I142" s="36" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="J137" s="36" t="inlineStr">
+      <c r="J142" s="36" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="K137" s="36" t="inlineStr">
+      <c r="K142" s="36" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>